--- a/EntornoServidor(PHP)/Proyecto_Agenda2/ProductBacklogAplicacionAgenda2.xlsx
+++ b/EntornoServidor(PHP)/Proyecto_Agenda2/ProductBacklogAplicacionAgenda2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documentos\Materiales DWES\EduScrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ProfVespertino\Documents\Gregorio\ParaLlevar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19FC60AD-C3F1-4071-9DE4-F4E2C469E4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7A92BB-B0B7-4823-8418-9BBE80AAF74A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5130" yWindow="-8445" windowWidth="21600" windowHeight="11835" xr2:uid="{4C886F83-8B5F-4580-9E91-DFE572363E8A}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Lista de tareas pendientes (Product Backlog)</t>
   </si>
@@ -48,6 +40,52 @@
   </si>
   <si>
     <t>Definición de hecho</t>
+  </si>
+  <si>
+    <t>Como usuario necesito iniciar sesión para poder consultar y gestionar mi propia agenda 
+de contactos</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder cerrar la sesión para que mis datos y agenda permanezcan 
+privados</t>
+  </si>
+  <si>
+    <t>Como administrador quiero gestionar los roles de la aplicación para asegurar que 
+cada usuario solo puede manejar sus contactos personales</t>
+  </si>
+  <si>
+    <t>La aplicación cuenta con una interfaz que incluye una barra de navegación y diferentes mensajes que facilitan al usuario saber qué puede hacer y qué circunstancias están sucediendo en su interacción con la aplicación</t>
+  </si>
+  <si>
+    <t>La aplicación cuenta con una interfaz que permite a un nuevo usuario iniciar sesión ante la aplicación y como resultado le presenta sus contactos y la posibilidad de gestionarlos, impidiéndole el acceso a cualquier otra agenda que mantenga la aplicación</t>
+  </si>
+  <si>
+    <t>La aplicación cuenta con un sistema de roles sencillo: admin y usuario, que define los permisos de acceso y modificación para cada uno de los usuarios de la aplicación clasificados en esos roles</t>
+  </si>
+  <si>
+    <t>La aplicación cuenta con un archivo usuarios.txt en el que se persisten los datos que mantiene el array usuarios</t>
+  </si>
+  <si>
+    <t>La aplicación cuenta con una interfaz que permite a un nuevo usuario registrar sus datos personales, definir su nickname y contraseña, y como resultado se crea un registro del usuario en el array usuarios, crea el archivo agenda personal del nuevo usuario y delimita los permisos del usuario en la aplicación.
+El array usuarios mantiene el nickname y contraseña del usuario, el nombre y apellidos, dirección, teléfono y eCorreo</t>
+  </si>
+  <si>
+    <t>La aplicación incluye una opción de cierre de sesión que guarda los contactos del usuario y desconecta al usuario de la aplicación salvaguardando así sus datos</t>
+  </si>
+  <si>
+    <t>Como administrador necesito persistir los usuarios de la aplicación para que los usuarios puedan iniciar sesión y así gestionar sus agendas personales</t>
+  </si>
+  <si>
+    <t>Como administrador necesito acceder a los datos del archivo usuarios.txt y poder examinar los datos brutos de los archivos agenda de los usuarios (espacio que ocupan y otros datos del sistema) y así conocer las necesidades de espacio y/o crecimiento de la aplicación</t>
+  </si>
+  <si>
+    <t>La aplicación cuenta con una interfaz que permite al roll admin acceder al archivo usuarios.txt, gestionarlo y conocer datos de sistema relativos a los archivos agenda de cada usuario</t>
+  </si>
+  <si>
+    <t>Como usuario deseo manejar un sitio web más intuitivo que me ayude a saber que puedo hacer en la aplicación y qué es lo que está pasando en mi interacción con ella</t>
+  </si>
+  <si>
+    <t>Como usuario necesito poder registrarme para poder acceder y mantener los datos de mi propia agenda de contactos</t>
   </si>
 </sst>
 </file>
@@ -83,8 +121,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A83123-3653-447F-A84D-ADAA3BF6FB88}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +485,124 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>